--- a/Industrials/Waste Connections.xlsx
+++ b/Industrials/Waste Connections.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E03BF9-20C4-4644-A25C-31C9757B9C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928B284-65FA-C742-ABDA-2BFB7877911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2414,11 +2414,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>196.61500000000001</v>
+    <v>196.65</v>
     <v>148.05000000000001</v>
-    <v>0.58360000000000001</v>
-    <v>0.93</v>
-    <v>4.8570000000000002E-3</v>
+    <v>0.57399999999999995</v>
+    <v>0.71</v>
+    <v>3.8209999999999997E-3</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2428,25 +2428,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>6220 HWY 7, SUITE 600, WOODBRIDGE, ON, L4H 4G3 CA</v>
-    <v>193.31</v>
+    <v>188.08</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45035.833333333336</v>
+    <v>45070.833333333336</v>
     <v>0</v>
-    <v>191.73</v>
-    <v>49291520000</v>
+    <v>185.71</v>
+    <v>47864640000</v>
     <v>WASTE CONNECTIONS, INC.</v>
     <v>WASTE CONNECTIONS, INC.</v>
-    <v>192.01</v>
-    <v>43.88</v>
-    <v>191.46</v>
-    <v>192.39</v>
-    <v>192.39</v>
-    <v>257546900</v>
+    <v>185.86</v>
+    <v>41.72</v>
+    <v>185.8</v>
+    <v>186.51</v>
+    <v>186.51</v>
+    <v>257556500</v>
     <v>WCN</v>
     <v>WASTE CONNECTIONS, INC. (XTSE:WCN)</v>
-    <v>250054</v>
-    <v>221850</v>
+    <v>166719</v>
+    <v>215950</v>
     <v>2016</v>
   </rv>
   <rv s="2">
@@ -3032,10 +3032,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD95" sqref="AD95"/>
+      <selection pane="bottomRight" activeCell="AC93" sqref="AC93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4642,15 +4642,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>6.8347869807216144</v>
+        <v>6.6369350815094972</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>58.984996326265886</v>
+        <v>57.27751172124615</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>44.41417713763105</v>
+        <v>43.128485378193666</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10315,10 +10315,10 @@
       <c r="AA83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH83" s="59" t="s">
+      <c r="AH83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AI83" s="60"/>
+      <c r="AI83" s="62"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10402,10 +10402,10 @@
       <c r="AA84" s="1">
         <v>192850000</v>
       </c>
-      <c r="AH84" s="61" t="s">
+      <c r="AH84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AI84" s="62"/>
+      <c r="AI84" s="64"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11235,10 +11235,10 @@
       <c r="AA93" s="1">
         <v>-880270000</v>
       </c>
-      <c r="AH93" s="61" t="s">
+      <c r="AH93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AI93" s="62"/>
+      <c r="AI93" s="64"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="AI95" s="38" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.58360000000000001</v>
+        <v>0.57399999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>6.6073980000000004E-2</v>
+        <v>6.5660700000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11680,10 +11680,10 @@
       <c r="AA98" s="1">
         <v>-243013000</v>
       </c>
-      <c r="AH98" s="61" t="s">
+      <c r="AH98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AI98" s="62"/>
+      <c r="AI98" s="64"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11862,7 +11862,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>0.12586732249127755</v>
+        <v>0.12913497972605889</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
       </c>
       <c r="AI101" s="39" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>49291520000</v>
+        <v>47864640000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.87413267750872248</v>
+        <v>0.87086502027394108</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="AI103" s="40">
         <f>AI99+AI101</f>
-        <v>56389060000</v>
+        <v>54962180000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12217,10 +12217,10 @@
       <c r="AA104" s="11">
         <v>181364000</v>
       </c>
-      <c r="AH104" s="61" t="s">
+      <c r="AH104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AI104" s="62"/>
+      <c r="AI104" s="64"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>6.0617083731797326E-2</v>
+        <v>6.0115505472594845E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12488,7 +12488,7 @@
       <c r="AE107" s="42"/>
       <c r="AF107" s="45">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>49614669986.554237</v>
+        <v>50323349513.385567</v>
       </c>
       <c r="AG107" s="46" t="s">
         <v>148</v>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="AF108" s="45">
         <f>AF107+AF106</f>
-        <v>51338699113.614326</v>
+        <v>52047378640.445656</v>
       </c>
       <c r="AG108" s="46" t="s">
         <v>144</v>
@@ -12529,14 +12529,14 @@
       </c>
       <c r="AI108" s="50">
         <f>AI105</f>
-        <v>6.0617083731797326E-2</v>
+        <v>6.0115505472594845E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="63" t="s">
+      <c r="AB109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AC109" s="64"/>
+      <c r="AC109" s="60"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="51" t="s">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="AC110" s="39">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>43030307516.950127</v>
+        <v>43655900311.194359</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="AC113" s="39">
         <f>AC110+AC111-AC112</f>
-        <v>36011404516.950127</v>
+        <v>36636997311.194359</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12589,7 +12589,7 @@
       </c>
       <c r="AC115" s="54">
         <f>AC113/AC114</f>
-        <v>142.95264818171995</v>
+        <v>145.4360322046486</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12598,7 +12598,7 @@
       </c>
       <c r="AC116" s="55" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>192.39</v>
+        <v>186.51</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12607,7 +12607,7 @@
       </c>
       <c r="AC117" s="57">
         <f>AC115/AC116-1</f>
-        <v>-0.25696424875658841</v>
+        <v>-0.22022394399952494</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
